--- a/SchedulingData/static4/pso/scheduling1_6.xlsx
+++ b/SchedulingData/static4/pso/scheduling1_6.xlsx
@@ -462,21 +462,21 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pond1</t>
+          <t>pond14</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>81.5</v>
+        <v>73.2</v>
       </c>
       <c r="E2" t="n">
-        <v>26.48</v>
+        <v>26.36</v>
       </c>
     </row>
     <row r="3">
@@ -485,74 +485,74 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pond17</t>
+          <t>pond32</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>81.5</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>127.7</v>
+        <v>46.6</v>
       </c>
       <c r="E3" t="n">
-        <v>23</v>
+        <v>26.04</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pond51</t>
+          <t>pond25</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>85.26000000000001</v>
+        <v>82.81999999999999</v>
       </c>
       <c r="E4" t="n">
-        <v>24.624</v>
+        <v>26.348</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pond19</t>
+          <t>pond47</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>46.6</v>
       </c>
       <c r="D5" t="n">
-        <v>73.62</v>
+        <v>94.09999999999999</v>
       </c>
       <c r="E5" t="n">
-        <v>25.788</v>
+        <v>22.92</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond31</t>
+          <t>pond57</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>82.81999999999999</v>
       </c>
       <c r="D6" t="n">
-        <v>42.7</v>
+        <v>130.62</v>
       </c>
       <c r="E6" t="n">
-        <v>27.92</v>
+        <v>23.708</v>
       </c>
     </row>
     <row r="7">
@@ -561,93 +561,93 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pond10</t>
+          <t>pond15</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>73.62</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>108.24</v>
+        <v>55.46</v>
       </c>
       <c r="E7" t="n">
-        <v>23.456</v>
+        <v>25.644</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pond38</t>
+          <t>pond51</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>55.46</v>
       </c>
       <c r="D8" t="n">
-        <v>58.84</v>
+        <v>155.22</v>
       </c>
       <c r="E8" t="n">
-        <v>27.296</v>
+        <v>20.268</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pond63</t>
+          <t>pond23</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>42.7</v>
+        <v>94.09999999999999</v>
       </c>
       <c r="D9" t="n">
-        <v>121.1</v>
+        <v>144.82</v>
       </c>
       <c r="E9" t="n">
-        <v>22.22</v>
+        <v>19.488</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pond49</t>
+          <t>pond19</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>58.84</v>
+        <v>130.62</v>
       </c>
       <c r="D10" t="n">
-        <v>129.78</v>
+        <v>208.94</v>
       </c>
       <c r="E10" t="n">
-        <v>23.792</v>
+        <v>19.496</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pond39</t>
+          <t>pond4</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>144.82</v>
       </c>
       <c r="D11" t="n">
-        <v>39.1</v>
+        <v>207.88</v>
       </c>
       <c r="E11" t="n">
-        <v>27.28</v>
+        <v>15.792</v>
       </c>
     </row>
     <row r="12">
@@ -656,17 +656,17 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pond6</t>
+          <t>pond38</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>121.1</v>
+        <v>73.2</v>
       </c>
       <c r="D12" t="n">
-        <v>192.04</v>
+        <v>116.64</v>
       </c>
       <c r="E12" t="n">
-        <v>19.256</v>
+        <v>23.656</v>
       </c>
     </row>
     <row r="13">
@@ -675,55 +675,55 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pond27</t>
+          <t>pond39</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>85.26000000000001</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>130.06</v>
+        <v>49.1</v>
       </c>
       <c r="E13" t="n">
-        <v>21.784</v>
+        <v>27.28</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pond35</t>
+          <t>pond54</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>39.1</v>
+        <v>116.64</v>
       </c>
       <c r="D14" t="n">
-        <v>105.9</v>
+        <v>153</v>
       </c>
       <c r="E14" t="n">
-        <v>23.2</v>
+        <v>21.16</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pond23</t>
+          <t>pond37</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>105.9</v>
+        <v>49.1</v>
       </c>
       <c r="D15" t="n">
-        <v>171.22</v>
+        <v>115.7</v>
       </c>
       <c r="E15" t="n">
-        <v>19.768</v>
+        <v>22.24</v>
       </c>
     </row>
     <row r="16">
@@ -732,36 +732,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pond4</t>
+          <t>pond43</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>108.24</v>
+        <v>155.22</v>
       </c>
       <c r="D16" t="n">
-        <v>161.4</v>
+        <v>201.66</v>
       </c>
       <c r="E16" t="n">
-        <v>19.76</v>
+        <v>16.264</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pond54</t>
+          <t>pond59</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>192.04</v>
+        <v>115.7</v>
       </c>
       <c r="D17" t="n">
-        <v>248.4</v>
+        <v>195.1</v>
       </c>
       <c r="E17" t="n">
-        <v>16.76</v>
+        <v>16.92</v>
       </c>
     </row>
     <row r="18">
@@ -770,17 +770,17 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pond37</t>
+          <t>pond49</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>127.7</v>
+        <v>207.88</v>
       </c>
       <c r="D18" t="n">
-        <v>209.1</v>
+        <v>289.02</v>
       </c>
       <c r="E18" t="n">
-        <v>17.96</v>
+        <v>12.288</v>
       </c>
     </row>
     <row r="19">
@@ -789,55 +789,55 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pond29</t>
+          <t>pond58</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>171.22</v>
+        <v>208.94</v>
       </c>
       <c r="D19" t="n">
-        <v>215.14</v>
+        <v>271.04</v>
       </c>
       <c r="E19" t="n">
-        <v>16.996</v>
+        <v>16.416</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pond57</t>
+          <t>pond52</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>129.78</v>
+        <v>195.1</v>
       </c>
       <c r="D20" t="n">
-        <v>162.58</v>
+        <v>234.72</v>
       </c>
       <c r="E20" t="n">
-        <v>21.152</v>
+        <v>14.088</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pond25</t>
+          <t>pond1</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>130.06</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>182.78</v>
+        <v>76.5</v>
       </c>
       <c r="E21" t="n">
-        <v>18.132</v>
+        <v>26.48</v>
       </c>
     </row>
     <row r="22">
@@ -846,36 +846,36 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pond52</t>
+          <t>pond8</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>215.14</v>
+        <v>271.04</v>
       </c>
       <c r="D22" t="n">
-        <v>264.76</v>
+        <v>368.04</v>
       </c>
       <c r="E22" t="n">
-        <v>14.164</v>
+        <v>13.296</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pond20</t>
+          <t>pond31</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>182.78</v>
+        <v>153</v>
       </c>
       <c r="D23" t="n">
-        <v>243.72</v>
+        <v>195.1</v>
       </c>
       <c r="E23" t="n">
-        <v>14.148</v>
+        <v>19.08</v>
       </c>
     </row>
     <row r="24">
@@ -884,17 +884,17 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pond59</t>
+          <t>pond62</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>162.58</v>
+        <v>76.5</v>
       </c>
       <c r="D24" t="n">
-        <v>231.98</v>
+        <v>191.72</v>
       </c>
       <c r="E24" t="n">
-        <v>15.832</v>
+        <v>21.048</v>
       </c>
     </row>
     <row r="25">
@@ -903,17 +903,17 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pond61</t>
+          <t>pond35</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>209.1</v>
+        <v>289.02</v>
       </c>
       <c r="D25" t="n">
-        <v>256.7</v>
+        <v>351.02</v>
       </c>
       <c r="E25" t="n">
-        <v>14.84</v>
+        <v>8.208</v>
       </c>
     </row>
     <row r="26">
@@ -922,36 +922,36 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pond32</t>
+          <t>pond10</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>256.7</v>
+        <v>351.02</v>
       </c>
       <c r="D26" t="n">
-        <v>332.4</v>
+        <v>395.64</v>
       </c>
       <c r="E26" t="n">
-        <v>10.88</v>
+        <v>5.876</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pond62</t>
+          <t>pond63</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>264.76</v>
+        <v>195.1</v>
       </c>
       <c r="D27" t="n">
-        <v>335.28</v>
+        <v>273.5</v>
       </c>
       <c r="E27" t="n">
-        <v>8.731999999999999</v>
+        <v>13.38</v>
       </c>
     </row>
     <row r="28">
@@ -960,17 +960,17 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pond47</t>
+          <t>pond29</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>231.98</v>
+        <v>191.72</v>
       </c>
       <c r="D28" t="n">
-        <v>294.18</v>
+        <v>245.74</v>
       </c>
       <c r="E28" t="n">
-        <v>12.712</v>
+        <v>18.276</v>
       </c>
     </row>
     <row r="29">
@@ -979,17 +979,17 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pond14</t>
+          <t>pond61</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>248.4</v>
+        <v>273.5</v>
       </c>
       <c r="D29" t="n">
-        <v>311.2</v>
+        <v>320.9</v>
       </c>
       <c r="E29" t="n">
-        <v>13.12</v>
+        <v>10.26</v>
       </c>
     </row>
     <row r="30">
@@ -998,17 +998,17 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pond58</t>
+          <t>pond17</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>294.18</v>
+        <v>245.74</v>
       </c>
       <c r="D30" t="n">
-        <v>360.88</v>
+        <v>306.54</v>
       </c>
       <c r="E30" t="n">
-        <v>9.632</v>
+        <v>14.796</v>
       </c>
     </row>
     <row r="31">
@@ -1017,36 +1017,36 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>pond15</t>
+          <t>pond27</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>161.4</v>
+        <v>201.66</v>
       </c>
       <c r="D31" t="n">
-        <v>226.06</v>
+        <v>241.46</v>
       </c>
       <c r="E31" t="n">
-        <v>15.404</v>
+        <v>13.424</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>pond8</t>
+          <t>pond20</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>311.2</v>
+        <v>306.54</v>
       </c>
       <c r="D32" t="n">
-        <v>358.6</v>
+        <v>367.48</v>
       </c>
       <c r="E32" t="n">
-        <v>10</v>
+        <v>10.812</v>
       </c>
     </row>
     <row r="33">
@@ -1055,17 +1055,17 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>pond43</t>
+          <t>pond6</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>226.06</v>
+        <v>241.46</v>
       </c>
       <c r="D33" t="n">
-        <v>307.1</v>
+        <v>302.2</v>
       </c>
       <c r="E33" t="n">
-        <v>11.4</v>
+        <v>10.46</v>
       </c>
     </row>
   </sheetData>
